--- a/Sales_Data.xlsx
+++ b/Sales_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09a554a45acac44b/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60CDB20B-8785-4E9B-9E3F-D67D7546FD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{60CDB20B-8785-4E9B-9E3F-D67D7546FD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C97AFCE-9979-45E3-9395-D9C800F2BEA5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{557AD0D1-D0E2-401D-820A-698F61F1EFF8}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Unit Prise</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Branch</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Dammam</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -112,7 +112,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,7 +141,7 @@
     <tableColumn id="1" xr3:uid="{9B0E5644-83F8-4E2A-8255-043F8AC64DED}" name="Product Name"/>
     <tableColumn id="2" xr3:uid="{7A290DF8-9E2A-47B2-9D59-1379F9DA4CA5}" name="Quantity"/>
     <tableColumn id="3" xr3:uid="{DEB87FEF-8253-43EB-B5BB-D9687037BF8C}" name="Unit Prise"/>
-    <tableColumn id="4" xr3:uid="{5C724285-5956-49D0-8A11-ABD658A95C3C}" name="Data"/>
+    <tableColumn id="4" xr3:uid="{5C724285-5956-49D0-8A11-ABD658A95C3C}" name="Date"/>
     <tableColumn id="5" xr3:uid="{E0AAA102-514F-490D-BFC4-9A4D0E932FD6}" name="Branch"/>
     <tableColumn id="6" xr3:uid="{91C2749C-6FAC-4C31-BE3E-0FC53A217524}" name="Total" dataDxfId="0">
       <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
@@ -471,7 +471,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,18 +495,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -518,7 +518,7 @@
         <v>45809</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F5" si="0">B2*C2</f>
@@ -527,7 +527,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -539,7 +539,7 @@
         <v>45810</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -560,7 +560,7 @@
         <v>45811</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -569,7 +569,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -581,7 +581,7 @@
         <v>45811</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
